--- a/app/src/main/assets/2020版本微淼18步数据汇总工具及异常项自动评价-report.xlsx
+++ b/app/src/main/assets/2020版本微淼18步数据汇总工具及异常项自动评价-report.xlsx
@@ -3085,10 +3085,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0&quot;.&quot;00,,&quot;亿&quot;"/>
     <numFmt numFmtId="177" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
@@ -3264,7 +3264,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3279,14 +3308,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3301,31 +3346,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3340,22 +3361,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3370,30 +3393,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3498,13 +3498,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3516,19 +3594,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3546,121 +3654,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3808,21 +3808,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3834,30 +3819,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3888,11 +3849,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3905,6 +3894,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3913,10 +3913,10 @@
     <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3925,16 +3925,16 @@
     <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
@@ -3943,115 +3943,115 @@
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4101,10 +4101,10 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10060,7 +10060,7 @@
   <dimension ref="A1:AG106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="P101" sqref="P101"/>
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -10068,11 +10068,15 @@
     <col min="1" max="1" width="3.44166666666667" style="11" customWidth="1"/>
     <col min="2" max="2" width="31" style="12" customWidth="1"/>
     <col min="3" max="3" width="9.78333333333333" style="11" customWidth="1"/>
-    <col min="4" max="8" width="8.33333333333333" style="11" customWidth="1"/>
+    <col min="4" max="4" width="9.64166666666667" style="11" customWidth="1"/>
+    <col min="5" max="5" width="9.325" style="11" customWidth="1"/>
+    <col min="6" max="6" width="10.5333333333333" style="11" customWidth="1"/>
+    <col min="7" max="7" width="9.93333333333333" style="11" customWidth="1"/>
+    <col min="8" max="8" width="10.2333333333333" style="11" customWidth="1"/>
     <col min="9" max="9" width="5.11666666666667" style="11" customWidth="1"/>
     <col min="10" max="10" width="29.8916666666667" style="11" customWidth="1"/>
     <col min="11" max="11" width="7" style="11" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="28.6583333333333" style="11" customWidth="1"/>
+    <col min="12" max="12" width="17.1666666666667" style="11" customWidth="1"/>
     <col min="13" max="15" width="15.7833333333333" style="11" customWidth="1"/>
     <col min="16" max="16" width="23.1916666666667" style="11" customWidth="1"/>
     <col min="17" max="17" width="3.21666666666667" style="13" customWidth="1"/>
@@ -10111,23 +10115,18 @@
         <v>21</v>
       </c>
       <c r="D2" s="17">
-        <f>L2</f>
         <v>44012</v>
       </c>
       <c r="E2" s="17">
-        <f>M2</f>
         <v>44104</v>
       </c>
       <c r="F2" s="17">
-        <f>N2</f>
         <v>44196</v>
       </c>
       <c r="G2" s="18">
-        <f>O2</f>
         <v>44286</v>
       </c>
       <c r="H2" s="17">
-        <f>P2</f>
         <v>44377</v>
       </c>
       <c r="I2" s="36"/>
@@ -14442,6 +14441,7 @@
       <c r="H106" s="89"/>
     </row>
   </sheetData>
+  <sheetProtection password="EA42" sheet="1" objects="1"/>
   <conditionalFormatting sqref="E4:G4">
     <cfRule type="containsText" dxfId="0" priority="59" operator="between" text="×">
       <formula>NOT(ISERROR(SEARCH("×",E4)))</formula>
